--- a/Java基础笔记/消息中间件RabbitMQ.xlsx
+++ b/Java基础笔记/消息中间件RabbitMQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28005" windowHeight="11760"/>
+    <workbookView windowWidth="28245" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="消息中间件RabbitMQ" sheetId="1" r:id="rId1"/>
@@ -847,14 +847,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109220</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -867,14 +867,15 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
+        <a:srcRect l="22833" t="582" r="25187" b="-1506"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="2762885"/>
-          <a:ext cx="8338185" cy="3161665"/>
+          <a:off x="1885950" y="2733675"/>
+          <a:ext cx="4333875" cy="3190875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,13 +887,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -903,7 +904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1990725" y="6134100"/>
+          <a:off x="1914525" y="6134100"/>
           <a:ext cx="4819650" cy="2305050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1019,6 +1020,252 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>路由键：消息到交换机的时候，交换机会转发到对应的队列中，消息会转发到哪个队列九是由路由键决定的</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>绑定：也就是交换机需要与队列互相绑定，两者是多对多的关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="561975"/>
+          <a:ext cx="2457450" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>交换机</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Exchange</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="1076325"/>
+          <a:ext cx="4229100" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>交换机的功能主要是接收消息并转发到绑定的队列，交换机本身不存储消息。在启用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模式后，交换机找不到队列会返回错误。交换机有四种类型：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. Direct</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>direct</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>类型的行为是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>先匹配，再投送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。即在绑定时设定一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>routing_key,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>routing_key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>匹配时，才会被交换机投送到绑定的队列中去。（默认）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. Topic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：按规则转发消息（最灵活）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3. Headers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>header attribute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>参数类型的交换机</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4. Fanout</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>： 转发消息到所有绑定队列</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -1289,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
